--- a/Cronogramas/Cronogramas.xlsx
+++ b/Cronogramas/Cronogramas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DACSistemaRH\Cronogramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\DACSistemaRH\Cronogramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
     <sheet name="Cronograma Casos de Uso" sheetId="2" r:id="rId2"/>
+    <sheet name="Cronograma Diagrama Sequencia" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -156,23 +157,32 @@
     <t>Tela que sera dividida em duas partes (dois retangulos): "Consolidado por funcionario" e "Consolidado por departamento". Caso a opcao "Consolidado por funcionario" seja escolhida, um combobox contendo todos os funcionarios do departamento sera habilitado e carregado. Caso a opcao selecionada seja "Consolidado por departamento", um combobox contendo todas as datas com atividade do departamento sera habilitado e carregado. Tambem havera um botao para confirmar a geracao do relatorio.</t>
   </si>
   <si>
-    <t>Guilherme / Matheus</t>
-  </si>
-  <si>
-    <t>Clovis / Matheus</t>
-  </si>
-  <si>
     <t>Clóvis</t>
   </si>
   <si>
     <t>Andrew</t>
+  </si>
+  <si>
+    <t>19/4/2017</t>
+  </si>
+  <si>
+    <t>Feito no Dia</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>18/4/2017</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +193,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,11 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -250,9 +269,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0">
-  <autoFilter ref="A1:H16"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="ID">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
@@ -263,15 +282,16 @@
     <tableColumn id="6" name="Responsável"/>
     <tableColumn id="7" name="Data"/>
     <tableColumn id="8" name="Status"/>
+    <tableColumn id="9" name="Feito no Dia"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H16" totalsRowShown="0">
-  <autoFilter ref="A1:H16"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="ID">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
@@ -282,6 +302,27 @@
     <tableColumn id="6" name="Responsável"/>
     <tableColumn id="7" name="Data"/>
     <tableColumn id="8" name="Status"/>
+    <tableColumn id="9" name="Feito no Dia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID">
+      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Sistema"/>
+    <tableColumn id="3" name="Nome"/>
+    <tableColumn id="4" name="Usuário"/>
+    <tableColumn id="5" name="Comentários"/>
+    <tableColumn id="6" name="Responsável"/>
+    <tableColumn id="7" name="Data"/>
+    <tableColumn id="8" name="Status"/>
+    <tableColumn id="9" name="Feito no Dia"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,25 +591,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +635,11 @@
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -617,8 +662,11 @@
         <v>42827</v>
       </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -642,8 +690,11 @@
         <v>42827</v>
       </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>3</v>
@@ -667,8 +718,11 @@
         <v>42827</v>
       </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -692,8 +746,11 @@
         <v>42827</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -717,8 +774,11 @@
         <v>42827</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -736,14 +796,17 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1">
         <v>42827</v>
       </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -761,14 +824,17 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1">
         <v>42827</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -792,8 +858,11 @@
         <v>42827</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -817,8 +886,11 @@
         <v>42827</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -842,8 +914,11 @@
         <v>42827</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -866,9 +941,12 @@
       <c r="G12" s="1">
         <v>42827</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -891,9 +969,12 @@
       <c r="G13" s="1">
         <v>42827</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -917,8 +998,11 @@
         <v>42827</v>
       </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -936,14 +1020,17 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1">
         <v>42827</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -967,6 +1054,9 @@
         <v>42827</v>
       </c>
       <c r="H16" s="2"/>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -979,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,12 +1081,14 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1113,11 @@
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1035,18 +1130,18 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1">
-        <v>42836</v>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1060,18 +1155,18 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>3</v>
@@ -1085,18 +1180,18 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1110,18 +1205,18 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1135,18 +1230,18 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1160,18 +1255,18 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1185,18 +1280,18 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1210,18 +1305,18 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
       <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>42836</v>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1235,18 +1330,18 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1260,18 +1355,18 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1285,18 +1380,18 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1">
-        <v>42836</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43043</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1310,18 +1405,18 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1">
-        <v>42836</v>
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1335,20 +1430,20 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="1">
-        <v>42836</v>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1360,18 +1455,18 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
       <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="1">
-        <v>42836</v>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1385,16 +1480,448 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1">
-        <v>42836</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H16" s="3"/>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cronogramas/Cronogramas.xlsx
+++ b/Cronogramas/Cronogramas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\DACSistemaRH\Cronogramas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
@@ -181,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1083,7 +1078,7 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1504,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cronogramas/Cronogramas.xlsx
+++ b/Cronogramas/Cronogramas.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mths\Desktop\Projeto DAC\DACSistemaRH\Cronogramas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
     <sheet name="Cronograma Casos de Uso" sheetId="2" r:id="rId2"/>
     <sheet name="Cronograma Diagrama Sequencia" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,13 +244,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" activeCellId="1" sqref="I9 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,9 +1137,9 @@
       <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5"/>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1282,7 +1288,7 @@
         <v>43043</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1306,9 +1312,9 @@
       <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" t="s">
-        <v>49</v>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1499,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/Cronogramas/Cronogramas.xlsx
+++ b/Cronogramas/Cronogramas.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma Telas" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,7 @@
     <sheet name="Cronograma Diagrama Sequencia" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -255,9 +251,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1066,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cronogramas/Cronogramas.xlsx
+++ b/Cronogramas/Cronogramas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
@@ -11,12 +11,7 @@
     <sheet name="Cronograma Casos de Uso" sheetId="2" r:id="rId2"/>
     <sheet name="Cronograma Diagrama Sequencia" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -177,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +191,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,13 +241,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,9 +258,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -578,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,9 +1713,9 @@
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="6"/>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,9 +1763,9 @@
       <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="6"/>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,9 +1788,9 @@
       <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="6"/>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1813,9 +1813,9 @@
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="6"/>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,8 +1920,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>